--- a/survey/zipG_ncd_meta7/form/ncd_screening.xlsx
+++ b/survey/zipG_ncd_meta7/form/ncd_screening.xlsx
@@ -7,9 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="survey" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="choices" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="settings" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -674,196 +672,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>list_name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>label::English</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>label::French</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>yes_no</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Oui</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>yes_no</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Non</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>sex</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Femme</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>sex</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Homme</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>form_title</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>form_id</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>version</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>default_language</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Primary Care: NCD Screening (BP + Glucose)</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ncd_screening</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2025-12-13</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>